--- a/0_0_Data/2_Processed_Data/1_GDP_series/absolute_rt_GDP.xlsx
+++ b/0_0_Data/2_Processed_Data/1_GDP_series/absolute_rt_GDP.xlsx
@@ -380,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CD138"/>
+  <dimension ref="A1:CE139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:82">
+    <row r="1" spans="1:83">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,8 +633,11 @@
       <c r="CD1" s="2">
         <v>45800</v>
       </c>
+      <c r="CE1" s="2">
+        <v>45891</v>
+      </c>
     </row>
-    <row r="2" spans="1:82">
+    <row r="2" spans="1:83">
       <c r="A2" s="2">
         <v>33284</v>
       </c>
@@ -881,8 +884,11 @@
       <c r="CD2">
         <v>70.78</v>
       </c>
+      <c r="CE2">
+        <v>70.81</v>
+      </c>
     </row>
-    <row r="3" spans="1:82">
+    <row r="3" spans="1:83">
       <c r="A3" s="2">
         <v>33374</v>
       </c>
@@ -1129,8 +1135,11 @@
       <c r="CD3">
         <v>70.47</v>
       </c>
+      <c r="CE3">
+        <v>70.47</v>
+      </c>
     </row>
-    <row r="4" spans="1:82">
+    <row r="4" spans="1:83">
       <c r="A4" s="2">
         <v>33465</v>
       </c>
@@ -1377,8 +1386,11 @@
       <c r="CD4">
         <v>70.34</v>
       </c>
+      <c r="CE4">
+        <v>70.36</v>
+      </c>
     </row>
-    <row r="5" spans="1:82">
+    <row r="5" spans="1:83">
       <c r="A5" s="2">
         <v>33557</v>
       </c>
@@ -1625,8 +1637,11 @@
       <c r="CD5">
         <v>71.33</v>
       </c>
+      <c r="CE5">
+        <v>71.37</v>
+      </c>
     </row>
-    <row r="6" spans="1:82">
+    <row r="6" spans="1:83">
       <c r="A6" s="2">
         <v>33649</v>
       </c>
@@ -1873,8 +1888,11 @@
       <c r="CD6">
         <v>72.34</v>
       </c>
+      <c r="CE6">
+        <v>72.34999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:82">
+    <row r="7" spans="1:83">
       <c r="A7" s="2">
         <v>33740</v>
       </c>
@@ -2121,8 +2139,11 @@
       <c r="CD7">
         <v>71.90000000000001</v>
       </c>
+      <c r="CE7">
+        <v>71.90000000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:82">
+    <row r="8" spans="1:83">
       <c r="A8" s="2">
         <v>33831</v>
       </c>
@@ -2369,8 +2390,11 @@
       <c r="CD8">
         <v>71.70999999999999</v>
       </c>
+      <c r="CE8">
+        <v>71.73</v>
+      </c>
     </row>
-    <row r="9" spans="1:82">
+    <row r="9" spans="1:83">
       <c r="A9" s="2">
         <v>33923</v>
       </c>
@@ -2617,8 +2641,11 @@
       <c r="CD9">
         <v>71.5</v>
       </c>
+      <c r="CE9">
+        <v>71.53</v>
+      </c>
     </row>
-    <row r="10" spans="1:82">
+    <row r="10" spans="1:83">
       <c r="A10" s="2">
         <v>34015</v>
       </c>
@@ -2865,8 +2892,11 @@
       <c r="CD10">
         <v>70.94</v>
       </c>
+      <c r="CE10">
+        <v>70.95999999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:82">
+    <row r="11" spans="1:83">
       <c r="A11" s="2">
         <v>34105</v>
       </c>
@@ -3113,8 +3143,11 @@
       <c r="CD11">
         <v>70.97</v>
       </c>
+      <c r="CE11">
+        <v>70.97</v>
+      </c>
     </row>
-    <row r="12" spans="1:82">
+    <row r="12" spans="1:83">
       <c r="A12" s="2">
         <v>34196</v>
       </c>
@@ -3361,8 +3394,11 @@
       <c r="CD12">
         <v>71.37</v>
       </c>
+      <c r="CE12">
+        <v>71.39</v>
+      </c>
     </row>
-    <row r="13" spans="1:82">
+    <row r="13" spans="1:83">
       <c r="A13" s="2">
         <v>34288</v>
       </c>
@@ -3609,8 +3645,11 @@
       <c r="CD13">
         <v>71.31999999999999</v>
       </c>
+      <c r="CE13">
+        <v>71.33</v>
+      </c>
     </row>
-    <row r="14" spans="1:82">
+    <row r="14" spans="1:83">
       <c r="A14" s="2">
         <v>34380</v>
       </c>
@@ -3857,8 +3896,11 @@
       <c r="CD14">
         <v>72.31</v>
       </c>
+      <c r="CE14">
+        <v>72.34</v>
+      </c>
     </row>
-    <row r="15" spans="1:82">
+    <row r="15" spans="1:83">
       <c r="A15" s="2">
         <v>34470</v>
       </c>
@@ -4105,8 +4147,11 @@
       <c r="CD15">
         <v>72.73</v>
       </c>
+      <c r="CE15">
+        <v>72.73999999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:82">
+    <row r="16" spans="1:83">
       <c r="A16" s="2">
         <v>34561</v>
       </c>
@@ -4353,8 +4398,11 @@
       <c r="CD16">
         <v>73.15000000000001</v>
       </c>
+      <c r="CE16">
+        <v>73.17</v>
+      </c>
     </row>
-    <row r="17" spans="1:82">
+    <row r="17" spans="1:83">
       <c r="A17" s="2">
         <v>34653</v>
       </c>
@@ -4601,8 +4649,11 @@
       <c r="CD17">
         <v>73.97</v>
       </c>
+      <c r="CE17">
+        <v>73.98</v>
+      </c>
     </row>
-    <row r="18" spans="1:82">
+    <row r="18" spans="1:83">
       <c r="A18" s="2">
         <v>34745</v>
       </c>
@@ -4849,8 +4900,11 @@
       <c r="CD18">
         <v>73.67</v>
       </c>
+      <c r="CE18">
+        <v>73.69</v>
+      </c>
     </row>
-    <row r="19" spans="1:82">
+    <row r="19" spans="1:83">
       <c r="A19" s="2">
         <v>34835</v>
       </c>
@@ -5097,8 +5151,11 @@
       <c r="CD19">
         <v>74.27</v>
       </c>
+      <c r="CE19">
+        <v>74.28</v>
+      </c>
     </row>
-    <row r="20" spans="1:82">
+    <row r="20" spans="1:83">
       <c r="A20" s="2">
         <v>34926</v>
       </c>
@@ -5345,8 +5402,11 @@
       <c r="CD20">
         <v>74.40000000000001</v>
       </c>
+      <c r="CE20">
+        <v>74.43000000000001</v>
+      </c>
     </row>
-    <row r="21" spans="1:82">
+    <row r="21" spans="1:83">
       <c r="A21" s="2">
         <v>35018</v>
       </c>
@@ -5593,8 +5653,11 @@
       <c r="CD21">
         <v>74.43000000000001</v>
       </c>
+      <c r="CE21">
+        <v>74.45999999999999</v>
+      </c>
     </row>
-    <row r="22" spans="1:82">
+    <row r="22" spans="1:83">
       <c r="A22" s="2">
         <v>35110</v>
       </c>
@@ -5841,8 +5904,11 @@
       <c r="CD22">
         <v>73.91</v>
       </c>
+      <c r="CE22">
+        <v>73.93000000000001</v>
+      </c>
     </row>
-    <row r="23" spans="1:82">
+    <row r="23" spans="1:83">
       <c r="A23" s="2">
         <v>35201</v>
       </c>
@@ -6089,8 +6155,11 @@
       <c r="CD23">
         <v>74.94</v>
       </c>
+      <c r="CE23">
+        <v>74.94</v>
+      </c>
     </row>
-    <row r="24" spans="1:82">
+    <row r="24" spans="1:83">
       <c r="A24" s="2">
         <v>35292</v>
       </c>
@@ -6337,8 +6406,11 @@
       <c r="CD24">
         <v>75.2</v>
       </c>
+      <c r="CE24">
+        <v>75.23</v>
+      </c>
     </row>
-    <row r="25" spans="1:82">
+    <row r="25" spans="1:83">
       <c r="A25" s="2">
         <v>35384</v>
       </c>
@@ -6585,8 +6657,11 @@
       <c r="CD25">
         <v>75.88</v>
       </c>
+      <c r="CE25">
+        <v>75.92</v>
+      </c>
     </row>
-    <row r="26" spans="1:82">
+    <row r="26" spans="1:83">
       <c r="A26" s="2">
         <v>35476</v>
       </c>
@@ -6833,8 +6908,11 @@
       <c r="CD26">
         <v>75.52</v>
       </c>
+      <c r="CE26">
+        <v>75.53</v>
+      </c>
     </row>
-    <row r="27" spans="1:82">
+    <row r="27" spans="1:83">
       <c r="A27" s="2">
         <v>35566</v>
       </c>
@@ -7081,8 +7159,11 @@
       <c r="CD27">
         <v>76.37</v>
       </c>
+      <c r="CE27">
+        <v>76.37</v>
+      </c>
     </row>
-    <row r="28" spans="1:82">
+    <row r="28" spans="1:83">
       <c r="A28" s="2">
         <v>35657</v>
       </c>
@@ -7329,8 +7410,11 @@
       <c r="CD28">
         <v>76.64</v>
       </c>
+      <c r="CE28">
+        <v>76.67</v>
+      </c>
     </row>
-    <row r="29" spans="1:82">
+    <row r="29" spans="1:83">
       <c r="A29" s="2">
         <v>35749</v>
       </c>
@@ -7577,8 +7661,11 @@
       <c r="CD29">
         <v>77.20999999999999</v>
       </c>
+      <c r="CE29">
+        <v>77.23999999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:82">
+    <row r="30" spans="1:83">
       <c r="A30" s="2">
         <v>35841</v>
       </c>
@@ -7825,8 +7912,11 @@
       <c r="CD30">
         <v>77.97</v>
       </c>
+      <c r="CE30">
+        <v>77.98</v>
+      </c>
     </row>
-    <row r="31" spans="1:82">
+    <row r="31" spans="1:83">
       <c r="A31" s="2">
         <v>35931</v>
       </c>
@@ -8073,8 +8163,11 @@
       <c r="CD31">
         <v>77.61</v>
       </c>
+      <c r="CE31">
+        <v>77.62</v>
+      </c>
     </row>
-    <row r="32" spans="1:82">
+    <row r="32" spans="1:83">
       <c r="A32" s="2">
         <v>36022</v>
       </c>
@@ -8321,8 +8414,11 @@
       <c r="CD32">
         <v>77.97</v>
       </c>
+      <c r="CE32">
+        <v>78</v>
+      </c>
     </row>
-    <row r="33" spans="1:82">
+    <row r="33" spans="1:83">
       <c r="A33" s="2">
         <v>36114</v>
       </c>
@@ -8569,8 +8665,11 @@
       <c r="CD33">
         <v>77.95</v>
       </c>
+      <c r="CE33">
+        <v>77.98</v>
+      </c>
     </row>
-    <row r="34" spans="1:82">
+    <row r="34" spans="1:83">
       <c r="A34" s="2">
         <v>36206</v>
       </c>
@@ -8817,8 +8916,11 @@
       <c r="CD34">
         <v>78.87</v>
       </c>
+      <c r="CE34">
+        <v>78.88</v>
+      </c>
     </row>
-    <row r="35" spans="1:82">
+    <row r="35" spans="1:83">
       <c r="A35" s="2">
         <v>36296</v>
       </c>
@@ -9065,8 +9167,11 @@
       <c r="CD35">
         <v>78.77</v>
       </c>
+      <c r="CE35">
+        <v>78.78</v>
+      </c>
     </row>
-    <row r="36" spans="1:82">
+    <row r="36" spans="1:83">
       <c r="A36" s="2">
         <v>36387</v>
       </c>
@@ -9313,8 +9418,11 @@
       <c r="CD36">
         <v>79.83</v>
       </c>
+      <c r="CE36">
+        <v>79.86</v>
+      </c>
     </row>
-    <row r="37" spans="1:82">
+    <row r="37" spans="1:83">
       <c r="A37" s="2">
         <v>36479</v>
       </c>
@@ -9561,8 +9669,11 @@
       <c r="CD37">
         <v>80.20999999999999</v>
       </c>
+      <c r="CE37">
+        <v>80.23999999999999</v>
+      </c>
     </row>
-    <row r="38" spans="1:82">
+    <row r="38" spans="1:83">
       <c r="A38" s="2">
         <v>36571</v>
       </c>
@@ -9809,8 +9920,11 @@
       <c r="CD38">
         <v>81.48</v>
       </c>
+      <c r="CE38">
+        <v>81.48</v>
+      </c>
     </row>
-    <row r="39" spans="1:82">
+    <row r="39" spans="1:83">
       <c r="A39" s="2">
         <v>36662</v>
       </c>
@@ -10057,8 +10171,11 @@
       <c r="CD39">
         <v>82.11</v>
       </c>
+      <c r="CE39">
+        <v>82.13</v>
+      </c>
     </row>
-    <row r="40" spans="1:82">
+    <row r="40" spans="1:83">
       <c r="A40" s="2">
         <v>36753</v>
       </c>
@@ -10305,8 +10422,11 @@
       <c r="CD40">
         <v>82.16</v>
       </c>
+      <c r="CE40">
+        <v>82.19</v>
+      </c>
     </row>
-    <row r="41" spans="1:82">
+    <row r="41" spans="1:83">
       <c r="A41" s="2">
         <v>36845</v>
       </c>
@@ -10553,8 +10673,11 @@
       <c r="CD41">
         <v>81.81</v>
       </c>
+      <c r="CE41">
+        <v>81.84</v>
+      </c>
     </row>
-    <row r="42" spans="1:82">
+    <row r="42" spans="1:83">
       <c r="A42" s="2">
         <v>36937</v>
       </c>
@@ -10801,8 +10924,11 @@
       <c r="CD42">
         <v>83.56999999999999</v>
       </c>
+      <c r="CE42">
+        <v>83.58</v>
+      </c>
     </row>
-    <row r="43" spans="1:82">
+    <row r="43" spans="1:83">
       <c r="A43" s="2">
         <v>37027</v>
       </c>
@@ -11049,8 +11175,11 @@
       <c r="CD43">
         <v>83.33</v>
       </c>
+      <c r="CE43">
+        <v>83.37</v>
+      </c>
     </row>
-    <row r="44" spans="1:82">
+    <row r="44" spans="1:83">
       <c r="A44" s="2">
         <v>37118</v>
       </c>
@@ -11297,8 +11426,11 @@
       <c r="CD44">
         <v>83.31999999999999</v>
       </c>
+      <c r="CE44">
+        <v>83.37</v>
+      </c>
     </row>
-    <row r="45" spans="1:82">
+    <row r="45" spans="1:83">
       <c r="A45" s="2">
         <v>37210</v>
       </c>
@@ -11545,8 +11677,11 @@
       <c r="CD45">
         <v>83.06999999999999</v>
       </c>
+      <c r="CE45">
+        <v>83.11</v>
+      </c>
     </row>
-    <row r="46" spans="1:82">
+    <row r="46" spans="1:83">
       <c r="A46" s="2">
         <v>37302</v>
       </c>
@@ -11793,8 +11928,11 @@
       <c r="CD46">
         <v>82.72</v>
       </c>
+      <c r="CE46">
+        <v>82.72</v>
+      </c>
     </row>
-    <row r="47" spans="1:82">
+    <row r="47" spans="1:83">
       <c r="A47" s="2">
         <v>37392</v>
       </c>
@@ -12041,8 +12179,11 @@
       <c r="CD47">
         <v>83.01000000000001</v>
       </c>
+      <c r="CE47">
+        <v>83.04000000000001</v>
+      </c>
     </row>
-    <row r="48" spans="1:82">
+    <row r="48" spans="1:83">
       <c r="A48" s="2">
         <v>37483</v>
       </c>
@@ -12289,8 +12430,11 @@
       <c r="CD48">
         <v>83.58</v>
       </c>
+      <c r="CE48">
+        <v>83.61</v>
+      </c>
     </row>
-    <row r="49" spans="1:82">
+    <row r="49" spans="1:83">
       <c r="A49" s="2">
         <v>37575</v>
       </c>
@@ -12537,8 +12681,11 @@
       <c r="CD49">
         <v>83.36</v>
       </c>
+      <c r="CE49">
+        <v>83.38</v>
+      </c>
     </row>
-    <row r="50" spans="1:82">
+    <row r="50" spans="1:83">
       <c r="A50" s="2">
         <v>37667</v>
       </c>
@@ -12785,8 +12932,11 @@
       <c r="CD50">
         <v>82.23999999999999</v>
       </c>
+      <c r="CE50">
+        <v>82.25</v>
+      </c>
     </row>
-    <row r="51" spans="1:82">
+    <row r="51" spans="1:83">
       <c r="A51" s="2">
         <v>37757</v>
       </c>
@@ -13033,8 +13183,11 @@
       <c r="CD51">
         <v>82.34</v>
       </c>
+      <c r="CE51">
+        <v>82.37</v>
+      </c>
     </row>
-    <row r="52" spans="1:82">
+    <row r="52" spans="1:83">
       <c r="A52" s="2">
         <v>37848</v>
       </c>
@@ -13281,8 +13434,11 @@
       <c r="CD52">
         <v>83.09</v>
       </c>
+      <c r="CE52">
+        <v>83.12</v>
+      </c>
     </row>
-    <row r="53" spans="1:82">
+    <row r="53" spans="1:83">
       <c r="A53" s="2">
         <v>37940</v>
       </c>
@@ -13529,8 +13685,11 @@
       <c r="CD53">
         <v>83.19</v>
       </c>
+      <c r="CE53">
+        <v>83.22</v>
+      </c>
     </row>
-    <row r="54" spans="1:82">
+    <row r="54" spans="1:83">
       <c r="A54" s="2">
         <v>38032</v>
       </c>
@@ -13777,8 +13936,11 @@
       <c r="CD54">
         <v>83.09</v>
       </c>
+      <c r="CE54">
+        <v>83.09</v>
+      </c>
     </row>
-    <row r="55" spans="1:82">
+    <row r="55" spans="1:83">
       <c r="A55" s="2">
         <v>38123</v>
       </c>
@@ -14025,8 +14187,11 @@
       <c r="CD55">
         <v>83.56</v>
       </c>
+      <c r="CE55">
+        <v>83.58</v>
+      </c>
     </row>
-    <row r="56" spans="1:82">
+    <row r="56" spans="1:83">
       <c r="A56" s="2">
         <v>38214</v>
       </c>
@@ -14273,8 +14438,11 @@
       <c r="CD56">
         <v>83.29000000000001</v>
       </c>
+      <c r="CE56">
+        <v>83.31</v>
+      </c>
     </row>
-    <row r="57" spans="1:82">
+    <row r="57" spans="1:83">
       <c r="A57" s="2">
         <v>38306</v>
       </c>
@@ -14521,8 +14689,11 @@
       <c r="CD57">
         <v>83.25</v>
       </c>
+      <c r="CE57">
+        <v>83.28</v>
+      </c>
     </row>
-    <row r="58" spans="1:82">
+    <row r="58" spans="1:83">
       <c r="A58" s="2">
         <v>38398</v>
       </c>
@@ -14769,8 +14940,11 @@
       <c r="CD58">
         <v>83.40000000000001</v>
       </c>
+      <c r="CE58">
+        <v>83.41</v>
+      </c>
     </row>
-    <row r="59" spans="1:82">
+    <row r="59" spans="1:83">
       <c r="A59" s="2">
         <v>38488</v>
       </c>
@@ -15014,8 +15188,11 @@
       <c r="CD59">
         <v>83.86</v>
       </c>
+      <c r="CE59">
+        <v>83.91</v>
+      </c>
     </row>
-    <row r="60" spans="1:82">
+    <row r="60" spans="1:83">
       <c r="A60" s="2">
         <v>38579</v>
       </c>
@@ -15256,8 +15433,11 @@
       <c r="CD60">
         <v>84.55</v>
       </c>
+      <c r="CE60">
+        <v>84.56999999999999</v>
+      </c>
     </row>
-    <row r="61" spans="1:82">
+    <row r="61" spans="1:83">
       <c r="A61" s="2">
         <v>38671</v>
       </c>
@@ -15495,8 +15675,11 @@
       <c r="CD61">
         <v>84.87</v>
       </c>
+      <c r="CE61">
+        <v>84.89</v>
+      </c>
     </row>
-    <row r="62" spans="1:82">
+    <row r="62" spans="1:83">
       <c r="A62" s="2">
         <v>38763</v>
       </c>
@@ -15731,8 +15914,11 @@
       <c r="CD62">
         <v>85.81999999999999</v>
       </c>
+      <c r="CE62">
+        <v>85.84</v>
+      </c>
     </row>
-    <row r="63" spans="1:82">
+    <row r="63" spans="1:83">
       <c r="A63" s="2">
         <v>38853</v>
       </c>
@@ -15964,8 +16150,11 @@
       <c r="CD63">
         <v>87.28</v>
       </c>
+      <c r="CE63">
+        <v>87.31</v>
+      </c>
     </row>
-    <row r="64" spans="1:82">
+    <row r="64" spans="1:83">
       <c r="A64" s="2">
         <v>38944</v>
       </c>
@@ -16194,8 +16383,11 @@
       <c r="CD64">
         <v>87.95999999999999</v>
       </c>
+      <c r="CE64">
+        <v>87.97</v>
+      </c>
     </row>
-    <row r="65" spans="1:82">
+    <row r="65" spans="1:83">
       <c r="A65" s="2">
         <v>39036</v>
       </c>
@@ -16421,8 +16613,11 @@
       <c r="CD65">
         <v>89.23999999999999</v>
       </c>
+      <c r="CE65">
+        <v>89.26000000000001</v>
+      </c>
     </row>
-    <row r="66" spans="1:82">
+    <row r="66" spans="1:83">
       <c r="A66" s="2">
         <v>39128</v>
       </c>
@@ -16645,8 +16840,11 @@
       <c r="CD66">
         <v>89.36</v>
       </c>
+      <c r="CE66">
+        <v>89.38</v>
+      </c>
     </row>
-    <row r="67" spans="1:82">
+    <row r="67" spans="1:83">
       <c r="A67" s="2">
         <v>39218</v>
       </c>
@@ -16866,8 +17064,11 @@
       <c r="CD67">
         <v>89.95</v>
       </c>
+      <c r="CE67">
+        <v>89.97</v>
+      </c>
     </row>
-    <row r="68" spans="1:82">
+    <row r="68" spans="1:83">
       <c r="A68" s="2">
         <v>39309</v>
       </c>
@@ -17084,8 +17285,11 @@
       <c r="CD68">
         <v>90.40000000000001</v>
       </c>
+      <c r="CE68">
+        <v>90.43000000000001</v>
+      </c>
     </row>
-    <row r="69" spans="1:82">
+    <row r="69" spans="1:83">
       <c r="A69" s="2">
         <v>39401</v>
       </c>
@@ -17299,8 +17503,11 @@
       <c r="CD69">
         <v>91.06999999999999</v>
       </c>
+      <c r="CE69">
+        <v>91.09999999999999</v>
+      </c>
     </row>
-    <row r="70" spans="1:82">
+    <row r="70" spans="1:83">
       <c r="A70" s="2">
         <v>39493</v>
       </c>
@@ -17511,8 +17718,11 @@
       <c r="CD70">
         <v>91.62</v>
       </c>
+      <c r="CE70">
+        <v>91.63</v>
+      </c>
     </row>
-    <row r="71" spans="1:82">
+    <row r="71" spans="1:83">
       <c r="A71" s="2">
         <v>39584</v>
       </c>
@@ -17720,8 +17930,11 @@
       <c r="CD71">
         <v>91.29000000000001</v>
       </c>
+      <c r="CE71">
+        <v>91.3</v>
+      </c>
     </row>
-    <row r="72" spans="1:82">
+    <row r="72" spans="1:83">
       <c r="A72" s="2">
         <v>39675</v>
       </c>
@@ -17926,8 +18139,11 @@
       <c r="CD72">
         <v>90.79000000000001</v>
       </c>
+      <c r="CE72">
+        <v>90.8</v>
+      </c>
     </row>
-    <row r="73" spans="1:82">
+    <row r="73" spans="1:83">
       <c r="A73" s="2">
         <v>39767</v>
       </c>
@@ -18129,8 +18345,11 @@
       <c r="CD73">
         <v>89.39</v>
       </c>
+      <c r="CE73">
+        <v>89.39</v>
+      </c>
     </row>
-    <row r="74" spans="1:82">
+    <row r="74" spans="1:83">
       <c r="A74" s="2">
         <v>39859</v>
       </c>
@@ -18329,8 +18548,11 @@
       <c r="CD74">
         <v>85.19</v>
       </c>
+      <c r="CE74">
+        <v>85.2</v>
+      </c>
     </row>
-    <row r="75" spans="1:82">
+    <row r="75" spans="1:83">
       <c r="A75" s="2">
         <v>39949</v>
       </c>
@@ -18526,8 +18748,11 @@
       <c r="CD75">
         <v>85.42</v>
       </c>
+      <c r="CE75">
+        <v>85.41</v>
+      </c>
     </row>
-    <row r="76" spans="1:82">
+    <row r="76" spans="1:83">
       <c r="A76" s="2">
         <v>40040</v>
       </c>
@@ -18720,8 +18945,11 @@
       <c r="CD76">
         <v>85.93000000000001</v>
       </c>
+      <c r="CE76">
+        <v>85.94</v>
+      </c>
     </row>
-    <row r="77" spans="1:82">
+    <row r="77" spans="1:83">
       <c r="A77" s="2">
         <v>40132</v>
       </c>
@@ -18911,8 +19139,11 @@
       <c r="CD77">
         <v>86.59999999999999</v>
       </c>
+      <c r="CE77">
+        <v>86.59999999999999</v>
+      </c>
     </row>
-    <row r="78" spans="1:82">
+    <row r="78" spans="1:83">
       <c r="A78" s="2">
         <v>40224</v>
       </c>
@@ -19099,8 +19330,11 @@
       <c r="CD78">
         <v>87.22</v>
       </c>
+      <c r="CE78">
+        <v>87.23</v>
+      </c>
     </row>
-    <row r="79" spans="1:82">
+    <row r="79" spans="1:83">
       <c r="A79" s="2">
         <v>40314</v>
       </c>
@@ -19284,8 +19518,11 @@
       <c r="CD79">
         <v>89.12</v>
       </c>
+      <c r="CE79">
+        <v>89.12</v>
+      </c>
     </row>
-    <row r="80" spans="1:82">
+    <row r="80" spans="1:83">
       <c r="A80" s="2">
         <v>40405</v>
       </c>
@@ -19466,8 +19703,11 @@
       <c r="CD80">
         <v>89.98</v>
       </c>
+      <c r="CE80">
+        <v>89.98</v>
+      </c>
     </row>
-    <row r="81" spans="1:82">
+    <row r="81" spans="1:83">
       <c r="A81" s="2">
         <v>40497</v>
       </c>
@@ -19645,8 +19885,11 @@
       <c r="CD81">
         <v>90.56999999999999</v>
       </c>
+      <c r="CE81">
+        <v>90.56999999999999</v>
+      </c>
     </row>
-    <row r="82" spans="1:82">
+    <row r="82" spans="1:83">
       <c r="A82" s="2">
         <v>40589</v>
       </c>
@@ -19821,8 +20064,11 @@
       <c r="CD82">
         <v>92.20999999999999</v>
       </c>
+      <c r="CE82">
+        <v>92.20999999999999</v>
+      </c>
     </row>
-    <row r="83" spans="1:82">
+    <row r="83" spans="1:83">
       <c r="A83" s="2">
         <v>40679</v>
       </c>
@@ -19994,8 +20240,11 @@
       <c r="CD83">
         <v>92.45999999999999</v>
       </c>
+      <c r="CE83">
+        <v>92.45999999999999</v>
+      </c>
     </row>
-    <row r="84" spans="1:82">
+    <row r="84" spans="1:83">
       <c r="A84" s="2">
         <v>40770</v>
       </c>
@@ -20164,8 +20413,11 @@
       <c r="CD84">
         <v>92.95999999999999</v>
       </c>
+      <c r="CE84">
+        <v>92.95999999999999</v>
+      </c>
     </row>
-    <row r="85" spans="1:82">
+    <row r="85" spans="1:83">
       <c r="A85" s="2">
         <v>40862</v>
       </c>
@@ -20331,8 +20583,11 @@
       <c r="CD85">
         <v>92.95999999999999</v>
       </c>
+      <c r="CE85">
+        <v>92.95</v>
+      </c>
     </row>
-    <row r="86" spans="1:82">
+    <row r="86" spans="1:83">
       <c r="A86" s="2">
         <v>40954</v>
       </c>
@@ -20495,8 +20750,11 @@
       <c r="CD86">
         <v>93.16</v>
       </c>
+      <c r="CE86">
+        <v>93.15000000000001</v>
+      </c>
     </row>
-    <row r="87" spans="1:82">
+    <row r="87" spans="1:83">
       <c r="A87" s="2">
         <v>41045</v>
       </c>
@@ -20656,8 +20914,11 @@
       <c r="CD87">
         <v>93.25</v>
       </c>
+      <c r="CE87">
+        <v>93.25</v>
+      </c>
     </row>
-    <row r="88" spans="1:82">
+    <row r="88" spans="1:83">
       <c r="A88" s="2">
         <v>41136</v>
       </c>
@@ -20814,8 +21075,11 @@
       <c r="CD88">
         <v>93.45</v>
       </c>
+      <c r="CE88">
+        <v>93.44</v>
+      </c>
     </row>
-    <row r="89" spans="1:82">
+    <row r="89" spans="1:83">
       <c r="A89" s="2">
         <v>41228</v>
       </c>
@@ -20969,8 +21233,11 @@
       <c r="CD89">
         <v>93.14</v>
       </c>
+      <c r="CE89">
+        <v>93.16</v>
+      </c>
     </row>
-    <row r="90" spans="1:82">
+    <row r="90" spans="1:83">
       <c r="A90" s="2">
         <v>41320</v>
       </c>
@@ -21121,8 +21388,11 @@
       <c r="CD90">
         <v>92.62</v>
       </c>
+      <c r="CE90">
+        <v>92.64</v>
+      </c>
     </row>
-    <row r="91" spans="1:82">
+    <row r="91" spans="1:83">
       <c r="A91" s="2">
         <v>41410</v>
       </c>
@@ -21270,8 +21540,11 @@
       <c r="CD91">
         <v>93.73999999999999</v>
       </c>
+      <c r="CE91">
+        <v>93.72</v>
+      </c>
     </row>
-    <row r="92" spans="1:82">
+    <row r="92" spans="1:83">
       <c r="A92" s="2">
         <v>41501</v>
       </c>
@@ -21416,8 +21689,11 @@
       <c r="CD92">
         <v>94.20999999999999</v>
       </c>
+      <c r="CE92">
+        <v>94.2</v>
+      </c>
     </row>
-    <row r="93" spans="1:82">
+    <row r="93" spans="1:83">
       <c r="A93" s="2">
         <v>41593</v>
       </c>
@@ -21559,8 +21835,11 @@
       <c r="CD93">
         <v>94.31999999999999</v>
       </c>
+      <c r="CE93">
+        <v>94.34</v>
+      </c>
     </row>
-    <row r="94" spans="1:82">
+    <row r="94" spans="1:83">
       <c r="A94" s="2">
         <v>41685</v>
       </c>
@@ -21699,8 +21978,11 @@
       <c r="CD94">
         <v>95.31</v>
       </c>
+      <c r="CE94">
+        <v>95.33</v>
+      </c>
     </row>
-    <row r="95" spans="1:82">
+    <row r="95" spans="1:83">
       <c r="A95" s="2">
         <v>41775</v>
       </c>
@@ -21836,8 +22118,11 @@
       <c r="CD95">
         <v>95.34</v>
       </c>
+      <c r="CE95">
+        <v>95.31</v>
+      </c>
     </row>
-    <row r="96" spans="1:82">
+    <row r="96" spans="1:83">
       <c r="A96" s="2">
         <v>41866</v>
       </c>
@@ -21970,8 +22255,11 @@
       <c r="CD96">
         <v>95.83</v>
       </c>
+      <c r="CE96">
+        <v>95.84</v>
+      </c>
     </row>
-    <row r="97" spans="1:82">
+    <row r="97" spans="1:83">
       <c r="A97" s="2">
         <v>41958</v>
       </c>
@@ -22101,8 +22389,11 @@
       <c r="CD97">
         <v>96.54000000000001</v>
       </c>
+      <c r="CE97">
+        <v>96.56999999999999</v>
+      </c>
     </row>
-    <row r="98" spans="1:82">
+    <row r="98" spans="1:83">
       <c r="A98" s="2">
         <v>42050</v>
       </c>
@@ -22229,8 +22520,11 @@
       <c r="CD98">
         <v>96.31999999999999</v>
       </c>
+      <c r="CE98">
+        <v>96.36</v>
+      </c>
     </row>
-    <row r="99" spans="1:82">
+    <row r="99" spans="1:83">
       <c r="A99" s="2">
         <v>42140</v>
       </c>
@@ -22354,8 +22648,11 @@
       <c r="CD99">
         <v>96.91</v>
       </c>
+      <c r="CE99">
+        <v>96.86</v>
+      </c>
     </row>
-    <row r="100" spans="1:82">
+    <row r="100" spans="1:83">
       <c r="A100" s="2">
         <v>42231</v>
       </c>
@@ -22476,8 +22773,11 @@
       <c r="CD100">
         <v>97.36</v>
       </c>
+      <c r="CE100">
+        <v>97.38</v>
+      </c>
     </row>
-    <row r="101" spans="1:82">
+    <row r="101" spans="1:83">
       <c r="A101" s="2">
         <v>42323</v>
       </c>
@@ -22595,8 +22895,11 @@
       <c r="CD101">
         <v>97.81</v>
       </c>
+      <c r="CE101">
+        <v>97.88</v>
+      </c>
     </row>
-    <row r="102" spans="1:82">
+    <row r="102" spans="1:83">
       <c r="A102" s="2">
         <v>42415</v>
       </c>
@@ -22711,8 +23014,11 @@
       <c r="CD102">
         <v>98.76000000000001</v>
       </c>
+      <c r="CE102">
+        <v>98.73999999999999</v>
+      </c>
     </row>
-    <row r="103" spans="1:82">
+    <row r="103" spans="1:83">
       <c r="A103" s="2">
         <v>42506</v>
       </c>
@@ -22824,8 +23130,11 @@
       <c r="CD103">
         <v>99.08</v>
       </c>
+      <c r="CE103">
+        <v>98.95999999999999</v>
+      </c>
     </row>
-    <row r="104" spans="1:82">
+    <row r="104" spans="1:83">
       <c r="A104" s="2">
         <v>42597</v>
       </c>
@@ -22934,8 +23243,11 @@
       <c r="CD104">
         <v>99.38</v>
       </c>
+      <c r="CE104">
+        <v>99.31</v>
+      </c>
     </row>
-    <row r="105" spans="1:82">
+    <row r="105" spans="1:83">
       <c r="A105" s="2">
         <v>42689</v>
       </c>
@@ -23041,8 +23353,11 @@
       <c r="CD105">
         <v>99.78</v>
       </c>
+      <c r="CE105">
+        <v>99.77</v>
+      </c>
     </row>
-    <row r="106" spans="1:82">
+    <row r="106" spans="1:83">
       <c r="A106" s="2">
         <v>42781</v>
       </c>
@@ -23145,8 +23460,11 @@
       <c r="CD106">
         <v>100.97</v>
       </c>
+      <c r="CE106">
+        <v>101.06</v>
+      </c>
     </row>
-    <row r="107" spans="1:82">
+    <row r="107" spans="1:83">
       <c r="A107" s="2">
         <v>42871</v>
       </c>
@@ -23246,8 +23564,11 @@
       <c r="CD107">
         <v>101.85</v>
       </c>
+      <c r="CE107">
+        <v>101.78</v>
+      </c>
     </row>
-    <row r="108" spans="1:82">
+    <row r="108" spans="1:83">
       <c r="A108" s="2">
         <v>42962</v>
       </c>
@@ -23344,8 +23665,11 @@
       <c r="CD108">
         <v>102.56</v>
       </c>
+      <c r="CE108">
+        <v>102.59</v>
+      </c>
     </row>
-    <row r="109" spans="1:82">
+    <row r="109" spans="1:83">
       <c r="A109" s="2">
         <v>43054</v>
       </c>
@@ -23439,8 +23763,11 @@
       <c r="CD109">
         <v>103.54</v>
       </c>
+      <c r="CE109">
+        <v>103.63</v>
+      </c>
     </row>
-    <row r="110" spans="1:82">
+    <row r="110" spans="1:83">
       <c r="A110" s="2">
         <v>43146</v>
       </c>
@@ -23531,8 +23858,11 @@
       <c r="CD110">
         <v>103.04</v>
       </c>
+      <c r="CE110">
+        <v>103.06</v>
+      </c>
     </row>
-    <row r="111" spans="1:82">
+    <row r="111" spans="1:83">
       <c r="A111" s="2">
         <v>43236</v>
       </c>
@@ -23620,8 +23950,11 @@
       <c r="CD111">
         <v>103.79</v>
       </c>
+      <c r="CE111">
+        <v>103.87</v>
+      </c>
     </row>
-    <row r="112" spans="1:82">
+    <row r="112" spans="1:83">
       <c r="A112" s="2">
         <v>43327</v>
       </c>
@@ -23706,8 +24039,11 @@
       <c r="CD112">
         <v>103.04</v>
       </c>
+      <c r="CE112">
+        <v>103.19</v>
+      </c>
     </row>
-    <row r="113" spans="1:82">
+    <row r="113" spans="1:83">
       <c r="A113" s="2">
         <v>43419</v>
       </c>
@@ -23789,8 +24125,11 @@
       <c r="CD113">
         <v>103.69</v>
       </c>
+      <c r="CE113">
+        <v>103.65</v>
+      </c>
     </row>
-    <row r="114" spans="1:82">
+    <row r="114" spans="1:83">
       <c r="A114" s="2">
         <v>43511</v>
       </c>
@@ -23869,8 +24208,11 @@
       <c r="CD114">
         <v>104.27</v>
       </c>
+      <c r="CE114">
+        <v>104.33</v>
+      </c>
     </row>
-    <row r="115" spans="1:82">
+    <row r="115" spans="1:83">
       <c r="A115" s="2">
         <v>43601</v>
       </c>
@@ -23946,8 +24288,11 @@
       <c r="CD115">
         <v>104.34</v>
       </c>
+      <c r="CE115">
+        <v>104.39</v>
+      </c>
     </row>
-    <row r="116" spans="1:82">
+    <row r="116" spans="1:83">
       <c r="A116" s="2">
         <v>43692</v>
       </c>
@@ -24020,8 +24365,11 @@
       <c r="CD116">
         <v>104.62</v>
       </c>
+      <c r="CE116">
+        <v>104.79</v>
+      </c>
     </row>
-    <row r="117" spans="1:82">
+    <row r="117" spans="1:83">
       <c r="A117" s="2">
         <v>43784</v>
       </c>
@@ -24091,8 +24439,11 @@
       <c r="CD117">
         <v>104.58</v>
       </c>
+      <c r="CE117">
+        <v>104.44</v>
+      </c>
     </row>
-    <row r="118" spans="1:82">
+    <row r="118" spans="1:83">
       <c r="A118" s="2">
         <v>43876</v>
       </c>
@@ -24159,8 +24510,11 @@
       <c r="CD118">
         <v>102.28</v>
       </c>
+      <c r="CE118">
+        <v>102.32</v>
+      </c>
     </row>
-    <row r="119" spans="1:82">
+    <row r="119" spans="1:83">
       <c r="A119" s="2">
         <v>43967</v>
       </c>
@@ -24224,8 +24578,11 @@
       <c r="CD119">
         <v>93.18000000000001</v>
       </c>
+      <c r="CE119">
+        <v>93.23999999999999</v>
+      </c>
     </row>
-    <row r="120" spans="1:82">
+    <row r="120" spans="1:83">
       <c r="A120" s="2">
         <v>44058</v>
       </c>
@@ -24286,8 +24643,11 @@
       <c r="CD120">
         <v>101.29</v>
       </c>
+      <c r="CE120">
+        <v>101.33</v>
+      </c>
     </row>
-    <row r="121" spans="1:82">
+    <row r="121" spans="1:83">
       <c r="A121" s="2">
         <v>44150</v>
       </c>
@@ -24345,8 +24705,11 @@
       <c r="CD121">
         <v>102.44</v>
       </c>
+      <c r="CE121">
+        <v>102.31</v>
+      </c>
     </row>
-    <row r="122" spans="1:82">
+    <row r="122" spans="1:83">
       <c r="A122" s="2">
         <v>44242</v>
       </c>
@@ -24401,8 +24764,11 @@
       <c r="CD122">
         <v>101.3</v>
       </c>
+      <c r="CE122">
+        <v>101.68</v>
+      </c>
     </row>
-    <row r="123" spans="1:82">
+    <row r="123" spans="1:83">
       <c r="A123" s="2">
         <v>44332</v>
       </c>
@@ -24454,8 +24820,11 @@
       <c r="CD123">
         <v>103.88</v>
       </c>
+      <c r="CE123">
+        <v>104.07</v>
+      </c>
     </row>
-    <row r="124" spans="1:82">
+    <row r="124" spans="1:83">
       <c r="A124" s="2">
         <v>44423</v>
       </c>
@@ -24504,8 +24873,11 @@
       <c r="CD124">
         <v>103.92</v>
       </c>
+      <c r="CE124">
+        <v>104.16</v>
+      </c>
     </row>
-    <row r="125" spans="1:82">
+    <row r="125" spans="1:83">
       <c r="A125" s="2">
         <v>44515</v>
       </c>
@@ -24551,8 +24923,11 @@
       <c r="CD125">
         <v>104.56</v>
       </c>
+      <c r="CE125">
+        <v>104.72</v>
+      </c>
     </row>
-    <row r="126" spans="1:82">
+    <row r="126" spans="1:83">
       <c r="A126" s="2">
         <v>44607</v>
       </c>
@@ -24595,8 +24970,11 @@
       <c r="CD126">
         <v>104.75</v>
       </c>
+      <c r="CE126">
+        <v>105.43</v>
+      </c>
     </row>
-    <row r="127" spans="1:82">
+    <row r="127" spans="1:83">
       <c r="A127" s="2">
         <v>44697</v>
       </c>
@@ -24636,8 +25014,11 @@
       <c r="CD127">
         <v>104.73</v>
       </c>
+      <c r="CE127">
+        <v>105.59</v>
+      </c>
     </row>
-    <row r="128" spans="1:82">
+    <row r="128" spans="1:83">
       <c r="A128" s="2">
         <v>44788</v>
       </c>
@@ -24674,8 +25055,11 @@
       <c r="CD128">
         <v>105.35</v>
       </c>
+      <c r="CE128">
+        <v>105.9</v>
+      </c>
     </row>
-    <row r="129" spans="1:82">
+    <row r="129" spans="1:83">
       <c r="A129" s="2">
         <v>44880</v>
       </c>
@@ -24709,8 +25093,11 @@
       <c r="CD129">
         <v>104.81</v>
       </c>
+      <c r="CE129">
+        <v>105.53</v>
+      </c>
     </row>
-    <row r="130" spans="1:82">
+    <row r="130" spans="1:83">
       <c r="A130" s="2">
         <v>44972</v>
       </c>
@@ -24741,8 +25128,11 @@
       <c r="CD130">
         <v>104.96</v>
       </c>
+      <c r="CE130">
+        <v>105.03</v>
+      </c>
     </row>
-    <row r="131" spans="1:82">
+    <row r="131" spans="1:83">
       <c r="A131" s="2">
         <v>45062</v>
       </c>
@@ -24770,8 +25160,11 @@
       <c r="CD131">
         <v>104.8</v>
       </c>
+      <c r="CE131">
+        <v>104.95</v>
+      </c>
     </row>
-    <row r="132" spans="1:82">
+    <row r="132" spans="1:83">
       <c r="A132" s="2">
         <v>45153</v>
       </c>
@@ -24796,8 +25189,11 @@
       <c r="CD132">
         <v>105</v>
       </c>
+      <c r="CE132">
+        <v>104.95</v>
+      </c>
     </row>
-    <row r="133" spans="1:82">
+    <row r="133" spans="1:83">
       <c r="A133" s="2">
         <v>45245</v>
       </c>
@@ -24819,8 +25215,11 @@
       <c r="CD133">
         <v>104.61</v>
       </c>
+      <c r="CE133">
+        <v>104.66</v>
+      </c>
     </row>
-    <row r="134" spans="1:82">
+    <row r="134" spans="1:83">
       <c r="A134" s="2">
         <v>45337</v>
       </c>
@@ -24839,8 +25238,11 @@
       <c r="CD134">
         <v>104.86</v>
       </c>
+      <c r="CE134">
+        <v>104.55</v>
+      </c>
     </row>
-    <row r="135" spans="1:82">
+    <row r="135" spans="1:83">
       <c r="A135" s="2">
         <v>45428</v>
       </c>
@@ -24856,8 +25258,11 @@
       <c r="CD135">
         <v>104.55</v>
       </c>
+      <c r="CE135">
+        <v>104.28</v>
+      </c>
     </row>
-    <row r="136" spans="1:82">
+    <row r="136" spans="1:83">
       <c r="A136" s="2">
         <v>45519</v>
       </c>
@@ -24870,8 +25275,11 @@
       <c r="CD136">
         <v>104.66</v>
       </c>
+      <c r="CE136">
+        <v>104.3</v>
+      </c>
     </row>
-    <row r="137" spans="1:82">
+    <row r="137" spans="1:83">
       <c r="A137" s="2">
         <v>45611</v>
       </c>
@@ -24881,13 +25289,27 @@
       <c r="CD137">
         <v>104.45</v>
       </c>
+      <c r="CE137">
+        <v>104.49</v>
+      </c>
     </row>
-    <row r="138" spans="1:82">
+    <row r="138" spans="1:83">
       <c r="A138" s="2">
         <v>45703</v>
       </c>
       <c r="CD138">
         <v>104.88</v>
+      </c>
+      <c r="CE138">
+        <v>104.81</v>
+      </c>
+    </row>
+    <row r="139" spans="1:83">
+      <c r="A139" s="2">
+        <v>45793</v>
+      </c>
+      <c r="CE139">
+        <v>104.52</v>
       </c>
     </row>
   </sheetData>
